--- a/Tool/MMD Viewer/test.xlsx
+++ b/Tool/MMD Viewer/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24960" windowHeight="13845" tabRatio="662"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24960" windowHeight="13845" tabRatio="662" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_ReadMe" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="T_VisibleState" sheetId="4" r:id="rId5"/>
     <sheet name="T_WindowBase" sheetId="3" r:id="rId6"/>
     <sheet name="T_MonsterForm" sheetId="14" r:id="rId7"/>
-    <sheet name="CharacterWindow" sheetId="8" r:id="rId8"/>
-    <sheet name="MonsterTable" sheetId="9" r:id="rId9"/>
+    <sheet name="Character Window" sheetId="8" r:id="rId8"/>
+    <sheet name="Monster Table" sheetId="9" r:id="rId9"/>
     <sheet name="actionMap" sheetId="7" r:id="rId10"/>
     <sheet name="new_visibleState" sheetId="12" r:id="rId11"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="189">
   <si>
     <t>Vertical</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -96,29 +96,6 @@
     <t>nameOfHero</t>
   </si>
   <si>
-    <t>T_Position</t>
-  </si>
-  <si>
-    <t>T_Rect</t>
-  </si>
-  <si>
-    <t>T_VisibleState</t>
-  </si>
-  <si>
-    <t>T_WindowBase</t>
-  </si>
-  <si>
-    <t>T_VisibleState</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterWindow</t>
-  </si>
-  <si>
-    <t>T_Position</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Field</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -131,10 +108,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>T_Rect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>h</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -180,10 +153,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T_WindowBase</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Vertical</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -199,13 +168,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>actionMap</t>
-  </si>
-  <si>
-    <t>CharacterWindow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -224,10 +186,6 @@
     <t>aniName</t>
   </si>
   <si>
-    <t>visibleState</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>비어 있을 경우는 내용 없음을 의미</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -238,9 +196,6 @@
   <si>
     <t>위에서 아래로</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>new_visibleState</t>
   </si>
   <si>
     <t>layer</t>
@@ -255,18 +210,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>seq</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>-1, -0.5, -0.5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 0.3, 0.3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -275,14 +222,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>dummy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>visibleState</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>"애니0"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -303,10 +242,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Ogre</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>100/140/120</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -371,18 +306,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Orc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knight</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>You</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>"비었음"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -391,29 +314,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T_MonsterForm</t>
-  </si>
-  <si>
-    <t>T_MonsterForm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterTable</t>
-  </si>
-  <si>
-    <t>MonsterTable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>중간 노드 삽입 불가. 시스템상 문제가 아니라 엑셀 폼상 노드 삽입을 표시할 방법이 애매함</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>시트타입 Single : 첫번째 멤버의 데이터 타입 위치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -597,10 +502,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T_Form</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Korean</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -720,14 +621,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>T_WindowBase</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_VisibleState</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BinaryTest</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -766,6 +659,112 @@
   <si>
     <t>"새 \"비지블\" 스테이트&lt;LF&gt;입니당."</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_Position"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_Rect"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_VisibleState"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_WindowBase"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_MonsterForm"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_Position"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_Rect"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_VisibleState"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_WindowBase"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"actionMap"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"visibleState"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"dummy"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"new_visibleState"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Ogre"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Knight"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"You"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"seq"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_MonsterForm"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T_Form"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Character Window"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Character Window"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Monster Table"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Monster Table"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>노드명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1093,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1387,6 +1386,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1519,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,9 +1596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1718,13 +1725,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,7 +1798,334 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_RootNode" xfId="42"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="31"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1781,6 +2133,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="C7:J11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="표준_RootNode">
+  <autoFilter ref="C7:J11"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="노드명" dataDxfId="7" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="2" name="KoreanName" dataDxfId="6" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="3" name="EnglishName" dataDxfId="5" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="4" name="intelligence" dataDxfId="4"/>
+    <tableColumn id="5" name="threeSize" dataDxfId="3"/>
+    <tableColumn id="6" name="dropMoney" dataDxfId="2"/>
+    <tableColumn id="7" name="exp" dataDxfId="1" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="8" name="You에게만_추가" dataDxfId="0" dataCellStyle="표준_RootNode"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2072,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2084,86 +2453,86 @@
     <row r="1" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:7" ht="13.5" customHeight="1">
       <c r="B2" s="18" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.5" customHeight="1">
       <c r="B3" s="18" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="6" spans="2:7" ht="13.5" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="18" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="9" spans="2:7" ht="13.5" customHeight="1">
       <c r="B9" s="18" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="11" spans="2:7" ht="13.5" customHeight="1">
       <c r="B11" s="18" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="13" spans="2:7" ht="13.5" customHeight="1">
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="18" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="13.5" customHeight="1">
       <c r="E14" s="18" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="13.5" customHeight="1">
       <c r="F15" s="18" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="13.5" customHeight="1">
       <c r="G16" s="18" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="13.5" customHeight="1">
       <c r="G17" s="18" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="13.5" customHeight="1">
       <c r="G18" s="18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="13.5" customHeight="1">
       <c r="F19" s="18" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="13.5" customHeight="1">
@@ -2173,40 +2542,40 @@
     </row>
     <row r="21" spans="3:7" ht="13.5" customHeight="1">
       <c r="G21" s="18" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="13.5" customHeight="1">
       <c r="E22" s="18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="13.5" customHeight="1"/>
     <row r="24" spans="3:7" ht="13.5" customHeight="1">
       <c r="C24" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="18" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="13.5" customHeight="1">
       <c r="E25" s="18" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="13.5" customHeight="1">
       <c r="F26" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="13.5" customHeight="1">
       <c r="F27" s="18" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>11</v>
@@ -2214,17 +2583,17 @@
     </row>
     <row r="28" spans="3:7" ht="13.5" customHeight="1">
       <c r="E28" s="18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="13.5" customHeight="1"/>
     <row r="30" spans="3:7" ht="13.5" customHeight="1">
       <c r="C30" s="6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="18" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="13.5" customHeight="1">
@@ -2234,614 +2603,614 @@
     </row>
     <row r="32" spans="3:7" ht="13.5" customHeight="1">
       <c r="F32" s="18" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="13.5" customHeight="1">
       <c r="F33" s="18" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="13.5" customHeight="1">
       <c r="E34" s="18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="13.5" customHeight="1"/>
     <row r="36" spans="2:8" ht="13.5" customHeight="1">
       <c r="B36" s="18" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="13.5" customHeight="1">
       <c r="C37" s="18" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="13.5" customHeight="1">
       <c r="D38" s="16" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="13.5" customHeight="1">
       <c r="D39" s="18" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="13.5" customHeight="1">
       <c r="D40" s="18" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="13.5" customHeight="1">
       <c r="C41" s="18" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="13.5" customHeight="1">
       <c r="D42" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="2:8" ht="13.5" customHeight="1">
       <c r="D43" s="18" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="13.5" customHeight="1">
       <c r="D44" s="18" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="13.5" customHeight="1"/>
     <row r="46" spans="2:8" ht="13.5" customHeight="1">
       <c r="C46" s="18" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="13.5" customHeight="1"/>
     <row r="48" spans="2:8" ht="13.5" customHeight="1">
       <c r="B48" s="18" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="13.5" customHeight="1">
       <c r="C49" s="18" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="13.5" customHeight="1">
       <c r="D50" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J50" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="2:10" ht="13.5" customHeight="1">
       <c r="D51" s="18" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="13.5" customHeight="1">
       <c r="D52" s="18" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="13.5" customHeight="1">
       <c r="D53" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="36"/>
+        <v>158</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="2:10" ht="13.5" customHeight="1">
       <c r="D54" s="18" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="13.5" customHeight="1">
       <c r="C55" s="18" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="13.5" customHeight="1">
       <c r="D56" s="18" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="58" spans="2:10" ht="13.5" customHeight="1">
       <c r="B58" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="63"/>
+        <v>133</v>
+      </c>
+      <c r="D58" s="62"/>
     </row>
     <row r="59" spans="2:10" ht="13.5" customHeight="1">
       <c r="C59" s="18" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="13.5" customHeight="1">
       <c r="C60" s="18" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="13.5" customHeight="1">
       <c r="C61" s="18" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="13.5" customHeight="1">
       <c r="C62" s="18" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="13.5" customHeight="1">
       <c r="C63" s="18" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="13.5" customHeight="1">
       <c r="B64" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="52"/>
+        <v>134</v>
+      </c>
+      <c r="D64" s="51"/>
     </row>
     <row r="65" spans="2:10" ht="13.5" customHeight="1">
       <c r="C65" s="18" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B66" s="18" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C67" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
+      <c r="C67" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="39"/>
     </row>
     <row r="68" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="56" t="s">
+      <c r="D68" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="43"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
+      <c r="D69" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="42"/>
     </row>
     <row r="70" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C70" s="47"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C71" s="47"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="44" t="s">
+      <c r="C71" s="46"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="45" t="s">
+      <c r="F71" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="43"/>
+      <c r="G71" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C72" s="47"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="56" t="s">
+      <c r="C72" s="46"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="57">
+      <c r="F72" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="56">
         <v>0</v>
       </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="59"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
     </row>
     <row r="73" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C73" s="47"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="56" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="57">
+      <c r="F73" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="56">
         <v>0</v>
       </c>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="59"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
     </row>
     <row r="74" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C74" s="48"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="43"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="42"/>
     </row>
     <row r="75" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C75" s="49"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="51"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B76" s="18" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C77" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="40"/>
+      <c r="C77" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="39"/>
     </row>
     <row r="78" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
+      <c r="D78" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="43"/>
+      <c r="D79" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C80" s="48"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C81" s="48"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="56" t="s">
+      <c r="C81" s="47"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="56" t="s">
+      <c r="F81" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="59"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="58"/>
     </row>
     <row r="82" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C82" s="48"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C83" s="48"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="57">
+      <c r="C83" s="47"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="56">
         <v>0</v>
       </c>
-      <c r="F83" s="57">
+      <c r="F83" s="56">
         <v>0</v>
       </c>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="43"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C84" s="48"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C85" s="49"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="51"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="50"/>
     </row>
     <row r="86" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
       <c r="B86" s="18" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C87" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="55" t="s">
+      <c r="C87" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="39"/>
     </row>
     <row r="88" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="43"/>
+      <c r="D88" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="42"/>
     </row>
     <row r="89" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="43"/>
+      <c r="D89" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="42"/>
     </row>
     <row r="90" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C90" s="47"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="42"/>
     </row>
     <row r="91" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C91" s="47"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="41"/>
-      <c r="G91" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I91" s="58"/>
-      <c r="J91" s="59"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="40"/>
+      <c r="G91" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="I91" s="57"/>
+      <c r="J91" s="58"/>
     </row>
     <row r="92" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C92" s="47"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="H92" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="43"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="41"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C93" s="47"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F93" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G93" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H93" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="I93" s="42"/>
-      <c r="J93" s="43"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H93" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93" s="41"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C94" s="47"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="56" t="s">
+      <c r="C94" s="46"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="G94" s="61">
+      <c r="F94" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" s="60">
         <v>10</v>
       </c>
-      <c r="H94" s="61">
+      <c r="H94" s="60">
         <v>5</v>
       </c>
-      <c r="I94" s="42"/>
-      <c r="J94" s="43"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="42"/>
     </row>
     <row r="95" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C95" s="47"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="56" t="s">
+      <c r="C95" s="46"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G95" s="61">
+      <c r="F95" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G95" s="60">
         <v>200</v>
       </c>
-      <c r="H95" s="61">
+      <c r="H95" s="60">
         <v>320</v>
       </c>
-      <c r="I95" s="42"/>
-      <c r="J95" s="43"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="42"/>
     </row>
     <row r="96" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C96" s="48"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="43"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="42"/>
     </row>
     <row r="97" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C97" s="49"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="51"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="50"/>
     </row>
     <row r="98" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="99" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="100" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B100" s="37" t="s">
-        <v>141</v>
+      <c r="B100" s="36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="13.5" customHeight="1">
@@ -2851,11 +3220,11 @@
     </row>
     <row r="102" spans="2:10" ht="13.5" customHeight="1">
       <c r="C102" s="18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="64"/>
+      <c r="B104" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2870,7 +3239,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2880,10 +3249,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -2899,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1"/>
@@ -2909,16 +3278,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
@@ -2926,62 +3295,62 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="65"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="C9" s="19">
         <v>2.5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="67">
+        <v>53</v>
+      </c>
+      <c r="E9" s="65">
         <v>28517129</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="19">
         <v>4.5999999999999996</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="68"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="C11" s="19">
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="68"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2992,7 +3361,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -3006,10 +3375,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3017,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
@@ -3025,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3037,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3047,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7">
         <v>256</v>
@@ -3057,16 +3426,27 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3079,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3090,39 +3470,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
-      <c r="A1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>81</v>
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>111</v>
+      <c r="B3" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>25</v>
+      <c r="E5" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3131,11 +3511,11 @@
       <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>178</v>
+      <c r="D6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3144,11 +3524,11 @@
       <c r="C7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>102</v>
+      <c r="E7" s="73">
+        <v>65</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3157,11 +3537,11 @@
       <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>176</v>
+      <c r="E8" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3170,12 +3550,12 @@
       <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
-        <v>18</v>
+      <c r="D9" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3183,14 +3563,14 @@
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>19</v>
+      <c r="D10" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3198,64 +3578,64 @@
       <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>22</v>
+      <c r="D11" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
       <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>19</v>
+      <c r="D12" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
       <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>97</v>
+      <c r="D13" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
       <c r="C14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>48</v>
+      <c r="D14" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
       <c r="C15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>99</v>
+      <c r="D15" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3660,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3299,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3311,20 +3691,20 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3351,10 +3731,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3370,7 +3750,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3382,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3392,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>480</v>
@@ -3405,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7">
         <v>640</v>
@@ -3413,13 +3793,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3814,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3446,10 +3826,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F1"/>
     </row>
@@ -3466,7 +3846,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3476,19 +3856,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
@@ -3496,39 +3876,39 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="B8" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" s="19">
         <v>128</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
@@ -3536,7 +3916,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -3545,7 +3925,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -3562,7 +3942,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3572,10 +3952,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3583,7 +3963,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
@@ -3591,7 +3971,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3603,17 +3983,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -3623,26 +4003,26 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -3668,10 +4048,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3687,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3699,29 +4079,29 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
@@ -3729,9 +4109,9 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="23">
+        <v>71</v>
+      </c>
+      <c r="E8" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3740,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7">
         <v>50</v>
@@ -3754,21 +4134,21 @@
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="C10" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="23">
+        <v>143</v>
+      </c>
+      <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -3787,7 +4167,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3797,10 +4177,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3808,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
@@ -3816,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3828,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3838,7 +4218,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>21</v>
@@ -3851,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3862,14 +4242,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3881,180 +4261,179 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="15.77734375" customWidth="1"/>
+    <col min="1" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="C6" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+      <c r="C6" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1">
+      <c r="C7" t="s">
+        <v>187</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1">
+      <c r="C8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="19">
+        <v>81</v>
+      </c>
+      <c r="F8" s="19">
         <v>10</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7">
+        <v>101234567890</v>
+      </c>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="C9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="19">
         <v>5</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="7">
+        <v>201234567890</v>
+      </c>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="C10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="19">
         <v>15</v>
       </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="C11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
+        <v>58</v>
+      </c>
+      <c r="H10" s="22">
         <v>51234567890</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5">
-      <c r="C12" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="7">
-        <v>101234567890</v>
-      </c>
-      <c r="F12" s="7">
-        <v>201234567890</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="I10" s="7">
         <v>301234567890</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="C13" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66" t="s">
-        <v>182</v>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="C11" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="72" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4062,5 +4441,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Tool/MMD Viewer/test.xlsx
+++ b/Tool/MMD Viewer/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="188">
   <si>
     <t>Vertical</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -186,10 +186,6 @@
     <t>aniName</t>
   </si>
   <si>
-    <t>비어 있을 경우는 내용 없음을 의미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>비어 있을 경우는 Vertical을 의미</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -318,10 +314,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>시트타입 Single : 첫번째 멤버의 데이터 타입 위치</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>"오꾸"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -765,6 +757,10 @@
   <si>
     <t>bool</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트타입 Single : 첫번째 멤버의 데이터 타입 위치. 비어 있을 경우는 내용 없음을 의미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2439,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J104"/>
+  <dimension ref="B1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2453,86 +2449,86 @@
     <row r="1" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:7" ht="13.5" customHeight="1">
       <c r="B2" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="13.5" customHeight="1">
       <c r="B3" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1">
       <c r="B4" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="6" spans="2:7" ht="13.5" customHeight="1">
       <c r="B6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="9" spans="2:7" ht="13.5" customHeight="1">
       <c r="B9" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="11" spans="2:7" ht="13.5" customHeight="1">
       <c r="B11" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="13.5" customHeight="1"/>
     <row r="13" spans="2:7" ht="13.5" customHeight="1">
       <c r="C13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="13.5" customHeight="1">
       <c r="E14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="13.5" customHeight="1">
       <c r="F15" s="18" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="13.5" customHeight="1">
       <c r="G16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="13.5" customHeight="1">
       <c r="G17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="13.5" customHeight="1">
       <c r="G18" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="13.5" customHeight="1">
       <c r="F19" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="13.5" customHeight="1">
@@ -2542,40 +2538,40 @@
     </row>
     <row r="21" spans="3:7" ht="13.5" customHeight="1">
       <c r="G21" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="13.5" customHeight="1">
       <c r="E22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="13.5" customHeight="1"/>
     <row r="24" spans="3:7" ht="13.5" customHeight="1">
       <c r="C24" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="13.5" customHeight="1">
       <c r="E25" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="13.5" customHeight="1">
       <c r="F26" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="13.5" customHeight="1">
       <c r="F27" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>11</v>
@@ -2583,17 +2579,17 @@
     </row>
     <row r="28" spans="3:7" ht="13.5" customHeight="1">
       <c r="E28" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="13.5" customHeight="1"/>
     <row r="30" spans="3:7" ht="13.5" customHeight="1">
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="13.5" customHeight="1">
@@ -2603,225 +2599,234 @@
     </row>
     <row r="32" spans="3:7" ht="13.5" customHeight="1">
       <c r="F32" s="18" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="13.5" customHeight="1">
       <c r="F33" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" customHeight="1"/>
+    <row r="35" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B35" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="13.5" customHeight="1">
+      <c r="C36" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="13.5" customHeight="1">
+      <c r="D37" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="13.5" customHeight="1">
-      <c r="E34" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B36" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C37" s="18" t="s">
-        <v>96</v>
+      <c r="G37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D38" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="13.5" customHeight="1">
       <c r="D39" s="18" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D40" s="18" t="s">
-        <v>108</v>
+      <c r="C40" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C41" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="D41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D42" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="27" t="s">
+      <c r="D42" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="2:8" ht="13.5" customHeight="1">
       <c r="D43" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="13.5" customHeight="1">
-      <c r="D44" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="13.5" customHeight="1"/>
+    <row r="45" spans="2:8" ht="13.5" customHeight="1">
+      <c r="C45" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="13.5" customHeight="1"/>
+    <row r="47" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B47" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="13.5" customHeight="1">
+      <c r="C48" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="13.5" customHeight="1">
+      <c r="D49" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:8" ht="13.5" customHeight="1">
-      <c r="C46" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B48" s="18" t="s">
+      <c r="F49" s="30"/>
+      <c r="G49" s="32" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C49" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="35"/>
     </row>
     <row r="50" spans="2:10" ht="13.5" customHeight="1">
-      <c r="D50" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J50" s="35"/>
+      <c r="D50" s="18" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="51" spans="2:10" ht="13.5" customHeight="1">
       <c r="D51" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="13.5" customHeight="1">
-      <c r="D52" s="18" t="s">
-        <v>117</v>
-      </c>
+      <c r="D52" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="2:10" ht="13.5" customHeight="1">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="2:10" ht="13.5" customHeight="1">
-      <c r="D54" s="18" t="s">
-        <v>160</v>
+      <c r="C54" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C55" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="13.5" customHeight="1">
-      <c r="D56" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="13.5" customHeight="1"/>
+      <c r="D55" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="13.5" customHeight="1"/>
+    <row r="57" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B57" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="62"/>
+    </row>
     <row r="58" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B58" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="62"/>
+      <c r="C58" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="59" spans="2:10" ht="13.5" customHeight="1">
       <c r="C59" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="13.5" customHeight="1">
       <c r="C60" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="13.5" customHeight="1">
       <c r="C61" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="13.5" customHeight="1">
       <c r="C62" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C63" s="18" t="s">
-        <v>130</v>
-      </c>
+      <c r="B63" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B64" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="51"/>
-    </row>
-    <row r="65" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C65" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B66" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="C64" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B65" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="13.5" customHeight="1">
+      <c r="C66" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="39"/>
     </row>
     <row r="67" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C67" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
+      <c r="C67" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="2:10" ht="13.5" customHeight="1">
       <c r="C68" s="53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
@@ -2831,12 +2836,8 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C69" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
@@ -2847,9 +2848,15 @@
     <row r="70" spans="2:10" ht="13.5" customHeight="1">
       <c r="C70" s="46"/>
       <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
+      <c r="E70" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
       <c r="J70" s="42"/>
@@ -2857,18 +2864,18 @@
     <row r="71" spans="2:10" ht="13.5" customHeight="1">
       <c r="C71" s="46"/>
       <c r="D71" s="40"/>
-      <c r="E71" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="42"/>
+      <c r="E71" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="56">
+        <v>0</v>
+      </c>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
     </row>
     <row r="72" spans="2:10" ht="13.5" customHeight="1">
       <c r="C72" s="46"/>
@@ -2877,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G72" s="56">
         <v>0</v>
@@ -2887,66 +2894,64 @@
       <c r="J72" s="58"/>
     </row>
     <row r="73" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C73" s="46"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="56">
-        <v>0</v>
-      </c>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
-    </row>
-    <row r="74" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C74" s="47"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="42"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C75" s="48"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
-    </row>
-    <row r="76" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B76" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="B75" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="13.5" customHeight="1">
+      <c r="C76" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="39"/>
     </row>
     <row r="77" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C77" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="39"/>
+      <c r="C77" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="2:10" ht="13.5" customHeight="1">
       <c r="C78" s="53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" s="55" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
@@ -2956,12 +2961,8 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C79" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="55" t="s">
-        <v>131</v>
-      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
@@ -2972,35 +2973,39 @@
     <row r="80" spans="2:10" ht="13.5" customHeight="1">
       <c r="C80" s="47"/>
       <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="42"/>
+      <c r="E80" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="58"/>
     </row>
     <row r="81" spans="2:10" ht="13.5" customHeight="1">
       <c r="C81" s="47"/>
       <c r="D81" s="41"/>
       <c r="E81" s="55" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F81" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="58"/>
+        <v>20</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="2:10" ht="13.5" customHeight="1">
       <c r="C82" s="47"/>
       <c r="D82" s="41"/>
-      <c r="E82" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="55" t="s">
-        <v>20</v>
+      <c r="E82" s="56">
+        <v>0</v>
+      </c>
+      <c r="F82" s="56">
+        <v>0</v>
       </c>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
@@ -3010,62 +3015,62 @@
     <row r="83" spans="2:10" ht="13.5" customHeight="1">
       <c r="C83" s="47"/>
       <c r="D83" s="41"/>
-      <c r="E83" s="56">
-        <v>0</v>
-      </c>
-      <c r="F83" s="56">
-        <v>0</v>
-      </c>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
       <c r="J83" s="42"/>
     </row>
-    <row r="84" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C84" s="47"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="42"/>
+    <row r="84" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C84" s="48"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="50"/>
     </row>
     <row r="85" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C85" s="48"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="50"/>
-    </row>
-    <row r="86" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B86" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="B85" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="13.5" customHeight="1">
+      <c r="C86" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="39"/>
     </row>
     <row r="87" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C87" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
+      <c r="C87" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="42"/>
     </row>
     <row r="88" spans="2:10" ht="13.5" customHeight="1">
       <c r="C88" s="53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
@@ -3075,12 +3080,8 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C89" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>131</v>
-      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="40"/>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -3091,43 +3092,51 @@
     <row r="90" spans="2:10" ht="13.5" customHeight="1">
       <c r="C90" s="46"/>
       <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
+      <c r="E90" s="60" t="s">
+        <v>178</v>
+      </c>
       <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="42"/>
+      <c r="G90" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I90" s="57"/>
+      <c r="J90" s="58"/>
     </row>
     <row r="91" spans="2:10" ht="13.5" customHeight="1">
       <c r="C91" s="46"/>
       <c r="D91" s="40"/>
-      <c r="E91" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="F91" s="40"/>
+      <c r="E91" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="61" t="s">
+        <v>120</v>
+      </c>
       <c r="G91" s="56" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H91" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="I91" s="57"/>
-      <c r="J91" s="58"/>
+        <v>76</v>
+      </c>
+      <c r="I91" s="41"/>
+      <c r="J91" s="42"/>
     </row>
     <row r="92" spans="2:10" ht="13.5" customHeight="1">
       <c r="C92" s="46"/>
       <c r="D92" s="40"/>
       <c r="E92" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F92" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G92" s="56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H92" s="56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I92" s="41"/>
       <c r="J92" s="42"/>
@@ -3136,16 +3145,16 @@
       <c r="C93" s="46"/>
       <c r="D93" s="40"/>
       <c r="E93" s="55" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H93" s="56" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="G93" s="60">
+        <v>10</v>
+      </c>
+      <c r="H93" s="60">
+        <v>5</v>
       </c>
       <c r="I93" s="41"/>
       <c r="J93" s="42"/>
@@ -3154,77 +3163,59 @@
       <c r="C94" s="46"/>
       <c r="D94" s="40"/>
       <c r="E94" s="55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F94" s="61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G94" s="60">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H94" s="60">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="I94" s="41"/>
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C95" s="46"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" s="60">
-        <v>200</v>
-      </c>
-      <c r="H95" s="60">
-        <v>320</v>
-      </c>
+      <c r="C95" s="47"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
       <c r="I95" s="41"/>
       <c r="J95" s="42"/>
     </row>
-    <row r="96" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C96" s="47"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="42"/>
-    </row>
-    <row r="97" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49"/>
-      <c r="J97" s="50"/>
-    </row>
-    <row r="98" spans="2:10" ht="13.5" customHeight="1"/>
-    <row r="99" spans="2:10" ht="13.5" customHeight="1"/>
-    <row r="100" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B100" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" ht="13.5" customHeight="1">
+    <row r="96" spans="2:10" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C96" s="48"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="50"/>
+    </row>
+    <row r="97" spans="2:3" ht="13.5" customHeight="1"/>
+    <row r="98" spans="2:3" ht="13.5" customHeight="1"/>
+    <row r="99" spans="2:3" ht="13.5" customHeight="1">
+      <c r="B99" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="13.5" customHeight="1">
+      <c r="C100" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="13.5" customHeight="1">
       <c r="C101" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C102" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="63"/>
+    <row r="103" spans="2:3">
+      <c r="B103" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3249,10 +3240,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -3268,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1"/>
@@ -3284,7 +3275,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>40</v>
@@ -3301,10 +3292,10 @@
         <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -3315,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="64"/>
     </row>
@@ -3327,7 +3318,7 @@
         <v>2.5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="65">
         <v>28517129</v>
@@ -3339,7 +3330,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="66"/>
     </row>
@@ -3348,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="66"/>
     </row>
@@ -3375,10 +3366,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3394,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3416,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7">
         <v>256</v>
@@ -3426,26 +3417,26 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="C8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3462,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3490,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3512,10 +3503,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3541,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3551,11 +3542,11 @@
         <v>9</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3564,13 +3555,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3579,11 +3570,11 @@
         <v>9</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
@@ -3591,13 +3582,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
@@ -3605,11 +3596,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
@@ -3617,13 +3608,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
@@ -3631,11 +3622,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3660,10 +3651,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3679,7 +3670,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3698,13 +3689,13 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3731,10 +3722,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3750,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3793,13 +3784,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3826,10 +3817,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1"/>
     </row>
@@ -3846,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -3905,10 +3896,10 @@
         <v>128</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
@@ -3916,7 +3907,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -3925,7 +3916,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -3952,10 +3943,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -3971,7 +3962,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -4006,11 +3997,11 @@
         <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4019,10 +4010,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -4048,10 +4039,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -4067,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -4084,24 +4075,24 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
@@ -4109,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="22">
         <v>1</v>
@@ -4120,7 +4111,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7">
         <v>50</v>
@@ -4134,10 +4125,10 @@
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="C10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="E10" s="22">
         <v>0</v>
@@ -4145,10 +4136,10 @@
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="C11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -4177,10 +4168,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
@@ -4196,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1"/>
@@ -4231,7 +4222,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -4242,14 +4233,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -4293,14 +4284,14 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="5" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
       <c r="C6" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>16</v>
@@ -4315,50 +4306,50 @@
         <v>6</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
       <c r="C8" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="19">
         <v>10</v>
@@ -4372,19 +4363,19 @@
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="C9" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="19">
         <v>5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="7">
@@ -4394,19 +4385,19 @@
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="C10" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="19">
         <v>15</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="22">
         <v>51234567890</v>
@@ -4418,22 +4409,22 @@
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="C11" s="70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="68"/>
       <c r="G11" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/MMD Viewer/test.xlsx
+++ b/Tool/MMD Viewer/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24960" windowHeight="13845" tabRatio="662" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24960" windowHeight="13845" tabRatio="662" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="_ReadMe" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
   <si>
     <t>Vertical</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -614,14 +614,6 @@
   </si>
   <si>
     <t>BinaryTest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFFF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>You에게만_추가</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1088,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1382,17 +1374,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1525,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,9 +1708,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1741,9 +1719,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1794,39 +1769,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_RootNode" xfId="42"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -2132,17 +2075,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="C7:J11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="표준_RootNode">
-  <autoFilter ref="C7:J11"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="노드명" dataDxfId="7" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="2" name="KoreanName" dataDxfId="6" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="3" name="EnglishName" dataDxfId="5" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="4" name="intelligence" dataDxfId="4"/>
-    <tableColumn id="5" name="threeSize" dataDxfId="3"/>
-    <tableColumn id="6" name="dropMoney" dataDxfId="2"/>
-    <tableColumn id="7" name="exp" dataDxfId="1" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="8" name="You에게만_추가" dataDxfId="0" dataCellStyle="표준_RootNode"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="C7:I11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="표준_RootNode">
+  <autoFilter ref="C7:I11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="노드명" dataDxfId="6" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="2" name="KoreanName" dataDxfId="5" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="3" name="EnglishName" dataDxfId="4" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="4" name="intelligence" dataDxfId="3"/>
+    <tableColumn id="5" name="threeSize" dataDxfId="2"/>
+    <tableColumn id="6" name="dropMoney" dataDxfId="1"/>
+    <tableColumn id="7" name="exp" dataDxfId="0" dataCellStyle="표준_RootNode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2437,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2470,7 +2412,7 @@
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1"/>
@@ -2599,7 +2541,7 @@
     </row>
     <row r="32" spans="3:7" ht="13.5" customHeight="1">
       <c r="F32" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="13.5" customHeight="1">
@@ -2676,7 +2618,7 @@
     <row r="44" spans="2:8" ht="13.5" customHeight="1"/>
     <row r="45" spans="2:8" ht="13.5" customHeight="1">
       <c r="C45" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="13.5" customHeight="1"/>
@@ -2719,10 +2661,10 @@
     </row>
     <row r="52" spans="2:10" ht="13.5" customHeight="1">
       <c r="D52" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="32"/>
@@ -2732,7 +2674,7 @@
     </row>
     <row r="53" spans="2:10" ht="13.5" customHeight="1">
       <c r="D53" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="13.5" customHeight="1">
@@ -3093,14 +3035,14 @@
       <c r="C90" s="46"/>
       <c r="D90" s="40"/>
       <c r="E90" s="60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="56" t="s">
         <v>79</v>
       </c>
       <c r="H90" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I90" s="57"/>
       <c r="J90" s="58"/>
@@ -3295,7 +3237,7 @@
         <v>150</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -3355,7 +3297,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3423,20 +3365,20 @@
         <v>47</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="C8" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3518,7 +3460,7 @@
       <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="71">
         <v>65</v>
       </c>
       <c r="F7" s="4"/>
@@ -3542,11 +3484,11 @@
         <v>9</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -3555,13 +3497,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -3570,11 +3512,11 @@
         <v>9</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
@@ -3582,13 +3524,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
@@ -3596,11 +3538,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
@@ -3608,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
@@ -3622,11 +3564,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3841,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
@@ -3997,11 +3939,11 @@
         <v>37</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -4010,10 +3952,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="19"/>
     </row>
@@ -4222,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -4233,14 +4175,14 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4252,18 +4194,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="15.77734375" customWidth="1"/>
+    <col min="1" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -4271,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -4287,37 +4229,34 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C6" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="69" t="s">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
+      <c r="C6" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>69</v>
@@ -4337,11 +4276,8 @@
       <c r="I7" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="C8" s="11" t="s">
         <v>79</v>
       </c>
@@ -4359,11 +4295,10 @@
       <c r="I8" s="7">
         <v>101234567890</v>
       </c>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
       <c r="C9" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>76</v>
@@ -4381,11 +4316,10 @@
       <c r="I9" s="7">
         <v>201234567890</v>
       </c>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5">
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
       <c r="C10" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>77</v>
@@ -4405,27 +4339,23 @@
       <c r="I10" s="7">
         <v>301234567890</v>
       </c>
-      <c r="J10" s="67"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="C11" s="70" t="s">
-        <v>175</v>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="C11" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="72" t="s">
-        <v>151</v>
-      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Tool/MMD Viewer/test.xlsx
+++ b/Tool/MMD Viewer/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MiniKey\Tool\MMD Viewer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515CC640-3BFC-4988-9929-236BA08C9275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24960" windowHeight="13845" tabRatio="662" activeTab="8"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="662" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_ReadMe" sheetId="1" r:id="rId1"/>
@@ -758,7 +764,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1725,49 +1731,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="1"/>
-    <cellStyle name="20% - Accent2" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
-    <cellStyle name="20% - Accent4" xfId="4"/>
-    <cellStyle name="20% - Accent5" xfId="5"/>
-    <cellStyle name="20% - Accent6" xfId="6"/>
-    <cellStyle name="40% - Accent1" xfId="7"/>
-    <cellStyle name="40% - Accent2" xfId="8"/>
-    <cellStyle name="40% - Accent3" xfId="9"/>
-    <cellStyle name="40% - Accent4" xfId="10"/>
-    <cellStyle name="40% - Accent5" xfId="11"/>
-    <cellStyle name="40% - Accent6" xfId="12"/>
-    <cellStyle name="60% - Accent1" xfId="13"/>
-    <cellStyle name="60% - Accent2" xfId="14"/>
-    <cellStyle name="60% - Accent3" xfId="15"/>
-    <cellStyle name="60% - Accent4" xfId="16"/>
-    <cellStyle name="60% - Accent5" xfId="17"/>
-    <cellStyle name="60% - Accent6" xfId="18"/>
-    <cellStyle name="Accent1" xfId="19"/>
-    <cellStyle name="Accent2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21"/>
-    <cellStyle name="Accent4" xfId="22"/>
-    <cellStyle name="Accent5" xfId="23"/>
-    <cellStyle name="Accent6" xfId="24"/>
-    <cellStyle name="Bad" xfId="25"/>
-    <cellStyle name="Calculation" xfId="26"/>
-    <cellStyle name="Check Cell" xfId="27"/>
-    <cellStyle name="Explanatory Text" xfId="28"/>
-    <cellStyle name="Good" xfId="29"/>
-    <cellStyle name="Heading 1" xfId="30"/>
-    <cellStyle name="Heading 2" xfId="31"/>
-    <cellStyle name="Heading 3" xfId="32"/>
-    <cellStyle name="Heading 4" xfId="33"/>
-    <cellStyle name="Input" xfId="34"/>
-    <cellStyle name="Linked Cell" xfId="35"/>
-    <cellStyle name="Neutral" xfId="36"/>
-    <cellStyle name="Note" xfId="37"/>
-    <cellStyle name="Output" xfId="38"/>
-    <cellStyle name="Title" xfId="39"/>
-    <cellStyle name="Total" xfId="40"/>
-    <cellStyle name="Warning Text" xfId="41"/>
+    <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Note" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Output" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Title" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Total" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Warning Text" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_RootNode" xfId="42"/>
+    <cellStyle name="표준_RootNode" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2070,21 +2076,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="C7:I11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="표준_RootNode">
-  <autoFilter ref="C7:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표2" displayName="표2" ref="C7:I11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="표준_RootNode">
+  <autoFilter ref="C7:I11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="노드명" dataDxfId="6" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="2" name="KoreanName" dataDxfId="5" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="3" name="EnglishName" dataDxfId="4" dataCellStyle="표준_RootNode"/>
-    <tableColumn id="4" name="intelligence" dataDxfId="3"/>
-    <tableColumn id="5" name="threeSize" dataDxfId="2"/>
-    <tableColumn id="6" name="dropMoney" dataDxfId="1"/>
-    <tableColumn id="7" name="exp" dataDxfId="0" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="노드명" dataDxfId="6" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="KoreanName" dataDxfId="5" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EnglishName" dataDxfId="4" dataCellStyle="표준_RootNode"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="intelligence" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="threeSize" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="dropMoney" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="exp" dataDxfId="0" dataCellStyle="표준_RootNode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2133,7 +2142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2166,9 +2175,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2201,6 +2227,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2376,16 +2419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="16384" width="8.87890625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" customHeight="1"/>
@@ -3168,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3177,10 +3220,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="6" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3293,7 +3336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,11 +3345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="1" max="4" width="15.76171875" customWidth="1"/>
+    <col min="5" max="5" width="36.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3370,7 +3413,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.899999999999999">
       <c r="C8" s="5" t="s">
         <v>184</v>
       </c>
@@ -3389,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,11 +3441,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="5" width="15.76171875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="23" t="s">
         <v>68</v>
       </c>
@@ -3579,7 +3622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,10 +3631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="5" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3650,7 +3693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3659,10 +3702,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="5" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3743,7 +3786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3752,12 +3795,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="5" width="15.76171875" customWidth="1"/>
+    <col min="6" max="6" width="15.76171875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3871,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,10 +3923,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="6" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -3947,7 +3990,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.899999999999999">
       <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
@@ -3967,16 +4010,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="7" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
@@ -4065,7 +4108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7" ht="16.899999999999999">
       <c r="C10" s="5" t="s">
         <v>139</v>
       </c>
@@ -4076,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7" ht="16.899999999999999">
       <c r="C11" s="5" t="s">
         <v>140</v>
       </c>
@@ -4090,13 +4133,13 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,10 +4148,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="6" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -4170,7 +4213,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="16.899999999999999">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -4193,19 +4236,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="15.77734375" customWidth="1"/>
+    <col min="1" max="9" width="15.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="16.899999999999999">
       <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
@@ -4296,7 +4339,7 @@
         <v>101234567890</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="16.899999999999999">
       <c r="C9" s="11" t="s">
         <v>171</v>
       </c>
@@ -4317,7 +4360,7 @@
         <v>201234567890</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="16.899999999999999">
       <c r="C10" s="11" t="s">
         <v>172</v>
       </c>
@@ -4340,7 +4383,7 @@
         <v>301234567890</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="16.899999999999999">
       <c r="C11" s="69" t="s">
         <v>173</v>
       </c>
